--- a/prom.xlsx
+++ b/prom.xlsx
@@ -23,30 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Код ОКВЭД</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">2016</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">2)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">СЕЛЬСКОЕ ХОЗЯЙСТВО, ОХОТА И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
@@ -55,19 +34,7 @@
     <t xml:space="preserve">ЛЕСНОЕ ХОЗЯЙСТВО,ЛЕСОЗАГОТОВКИ И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТОЙ ОБЛАСТИ</t>
   </si>
   <si>
-    <t xml:space="preserve">в 3,0р.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в 8,9р.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в 4,3р.</t>
-  </si>
-  <si>
     <t xml:space="preserve">РЫБОЛОВСТВО, РЫБОВОДСТВО И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в 4,4р.</t>
   </si>
   <si>
     <t xml:space="preserve">ДОБЫЧА КАМЕННОГО УГЛЯ, БУРОГО УГЛЯ И ТОРФА</t>
@@ -97,7 +64,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -126,13 +93,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -416,13 +376,13 @@
       <c r="H1" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
+      <c r="I1" s="4" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>1</v>
@@ -451,13 +411,13 @@
     </row>
     <row r="3" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
+      <c r="C3" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>95.8754826249248</v>
@@ -465,8 +425,8 @@
       <c r="E3" s="7" t="n">
         <v>37.7539196352984</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
+      <c r="F3" s="7" t="n">
+        <v>45908</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>12.1936314749695</v>
@@ -474,13 +434,13 @@
       <c r="H3" s="7" t="n">
         <v>24.3105462338015</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
+      <c r="I3" s="7" t="n">
+        <v>45720</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>5</v>
@@ -488,8 +448,8 @@
       <c r="C4" s="7" t="n">
         <v>123.210600845219</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
+      <c r="D4" s="7" t="n">
+        <v>45751</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>145.556032599614</v>
@@ -509,7 +469,7 @@
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>10</v>
@@ -538,7 +498,7 @@
     </row>
     <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>11</v>
@@ -567,7 +527,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>12</v>
@@ -596,7 +556,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>13</v>
@@ -625,7 +585,7 @@
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>14</v>
@@ -654,7 +614,7 @@
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>15</v>

--- a/prom.xlsx
+++ b/prom.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximus\Desktop\Универ\Технологии искусственного интеллекта в государственном управлении\КТ5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573DDCB-1C7C-4820-9CAD-E5A4BEDFF59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">лист1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">лист1!$1:$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,68 +28,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Код ОКВЭД</t>
+    <t>Код ОКВЭД</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕЛЬСКОЕ ХОЗЯЙСТВО, ОХОТА И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
+    <t>СЕЛЬСКОЕ ХОЗЯЙСТВО, ОХОТА И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛЕСНОЕ ХОЗЯЙСТВО,ЛЕСОЗАГОТОВКИ И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТОЙ ОБЛАСТИ</t>
+    <t>ЛЕСНОЕ ХОЗЯЙСТВО,ЛЕСОЗАГОТОВКИ И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТОЙ ОБЛАСТИ</t>
   </si>
   <si>
-    <t xml:space="preserve">РЫБОЛОВСТВО, РЫБОВОДСТВО И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
+    <t>РЫБОЛОВСТВО, РЫБОВОДСТВО И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
   </si>
   <si>
-    <t xml:space="preserve">ДОБЫЧА КАМЕННОГО УГЛЯ, БУРОГО УГЛЯ И ТОРФА</t>
+    <t>ДОБЫЧА КАМЕННОГО УГЛЯ, БУРОГО УГЛЯ И ТОРФА</t>
   </si>
   <si>
-    <t xml:space="preserve">ДОБЫЧА СЫРОЙ НЕФТИ И ПРИРОДНОГО ГАЗА; ПРЕДОСТАВЛЕНИЕ УСЛУГ В  ЭТИХ ОБЛАСТЯХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОБЫЧА УРАНОВОЙ И ТОРИЕВОЙ РУД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОБЫЧА МЕТАЛЛИЧЕСКИХ РУД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОБЫЧА ПРОЧИХ ПОЛЕЗНЫХ ИСКОПАЕМЫХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРОИЗВОДСТВО ПИЩЕВЫХ ПРОДУКТОВ, ВКЛЮЧАЯ НАПИТКИ</t>
+    <t>ДОБЫЧА СЫРОЙ НЕФТИ И ПРИРОДНОГО ГАЗА; ПРЕДОСТАВЛЕНИЕ УСЛУГ В  ЭТИХ ОБЛАСТЯХ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
-      <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,166 +89,135 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -326,322 +270,249 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IW59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="10" style="1" width="9.14"/>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="257" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="4">
         <v>2010</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="4">
         <v>2011</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="4">
         <v>2012</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="4">
         <v>2013</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="4">
         <v>2014</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="H1" s="4">
         <v>2015</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="7">
         <v>105.28438613553</v>
       </c>
-      <c r="D2" s="7" t="n">
-        <v>85.8364958908898</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>108.939509232377</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>77.6603743651965</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>95.9537736249463</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>90.8713193264847</v>
-      </c>
-      <c r="I2" s="7" t="n">
+      <c r="D2" s="7">
+        <v>85.836495890889793</v>
+      </c>
+      <c r="E2" s="7">
+        <v>108.93950923237701</v>
+      </c>
+      <c r="F2" s="7">
+        <v>77.660374365196503</v>
+      </c>
+      <c r="G2" s="7">
+        <v>95.953773624946294</v>
+      </c>
+      <c r="H2" s="7">
+        <v>90.871319326484695</v>
+      </c>
+      <c r="I2" s="7">
         <v>118.876658147038</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>95.8754826249248</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>37.7539196352984</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="7">
+        <v>37.753919635298402</v>
+      </c>
+      <c r="F3" s="7">
         <v>45908</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>12.1936314749695</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <v>24.3105462338015</v>
-      </c>
-      <c r="I3" s="7" t="n">
+      <c r="H3" s="7">
+        <v>24.310546233801499</v>
+      </c>
+      <c r="I3" s="7">
         <v>45720</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>123.210600845219</v>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="7">
+        <v>123.21060084521901</v>
+      </c>
+      <c r="D4" s="7">
         <v>45751</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>145.556032599614</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>68.0261283238264</v>
-      </c>
-      <c r="G4" s="7" t="n">
+      <c r="E4" s="7">
+        <v>145.55603259961401</v>
+      </c>
+      <c r="F4" s="7">
+        <v>68.026128323826399</v>
+      </c>
+      <c r="G4" s="7">
         <v>71.10690936828</v>
       </c>
-      <c r="H4" s="7" t="n">
-        <v>94.3985164470394</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>179.730892942809</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="7">
+        <v>94.398516447039398</v>
+      </c>
+      <c r="I4" s="7">
+        <v>179.73089294280899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="6">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>88.9729868264877</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>140.213334273598</v>
-      </c>
-      <c r="E5" s="7" t="n">
+      <c r="C5" s="7">
+        <v>88.972986826487698</v>
+      </c>
+      <c r="D5" s="7">
+        <v>140.21333427359801</v>
+      </c>
+      <c r="E5" s="7">
         <v>116.217548530375</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <v>98.7941044000832</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>51.6998202014971</v>
-      </c>
-      <c r="H5" s="7" t="n">
+      <c r="F5" s="7">
+        <v>98.794104400083199</v>
+      </c>
+      <c r="G5" s="7">
+        <v>51.699820201497097</v>
+      </c>
+      <c r="H5" s="7">
         <v>157.938078186285</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="7">
         <v>102.076285913281</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>99.453142326024</v>
-      </c>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="7">
+        <v>99.453142326023993</v>
+      </c>
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>89.6729242903064</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>96.8517879575365</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>109.439413364954</v>
-      </c>
-      <c r="H6" s="7" t="n">
+      <c r="E6" s="7">
+        <v>89.672924290306398</v>
+      </c>
+      <c r="F6" s="7">
+        <v>96.851787957536501</v>
+      </c>
+      <c r="G6" s="7">
+        <v>109.43941336495401</v>
+      </c>
+      <c r="H6" s="7">
         <v>98.4868865372313</v>
       </c>
-      <c r="I6" s="7" t="n">
-        <v>82.4518558827176</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>139.155311205598</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>55.7333662882354</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>169.905044331382</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>45691</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>4.77826547460837</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>81.5751679892187</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>155.665084052089</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>88.7403960742175</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>146.189272910522</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>72.3362155352681</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>120.764266930539</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>109.231685989194</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>86.529342249588</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>87.3427613402266</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>166.240115836571</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>190.013010066191</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>72.0095099433852</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>131.629588294416</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>105.239136610673</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>78.0622072836105</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>102.48784689007</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>103.679188341931</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>88.9059938015199</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>120.928731280402</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>92.8947282622065</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>78.307898597557</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>110.002230673667</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="7">
+        <v>82.451855882717595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -652,7 +523,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -663,7 +534,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -674,7 +545,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -685,7 +556,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -696,7 +567,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -707,7 +578,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -718,7 +589,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="7"/>
@@ -729,7 +600,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -740,7 +611,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -751,7 +622,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -762,7 +633,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -773,7 +644,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -784,7 +655,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -795,7 +666,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -806,7 +677,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -817,7 +688,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -828,7 +699,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -839,7 +710,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -850,7 +721,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -861,7 +732,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -872,7 +743,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -883,7 +754,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -894,7 +765,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -905,7 +776,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -916,7 +787,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -927,7 +798,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -938,7 +809,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -949,7 +820,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -960,7 +831,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -971,7 +842,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -982,7 +853,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -995,7 +866,7 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -1006,7 +877,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -1017,7 +888,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -1028,7 +899,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -1039,7 +910,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -1050,7 +921,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -1061,7 +932,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -1072,7 +943,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
@@ -1083,7 +954,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
@@ -1094,7 +965,7 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
@@ -1105,7 +976,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
@@ -1116,7 +987,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
@@ -1127,7 +998,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -1138,7 +1009,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -1149,7 +1020,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -1160,7 +1031,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
@@ -1171,7 +1042,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
@@ -1183,12 +1054,8 @@
       <c r="I59" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="70" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/prom.xlsx
+++ b/prom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximus\Desktop\Универ\Технологии искусственного интеллекта в государственном управлении\КТ5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573DDCB-1C7C-4820-9CAD-E5A4BEDFF59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58BEE1-D858-4180-8D91-36CB42DBBA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Код ОКВЭД</t>
   </si>
@@ -45,7 +45,19 @@
     <t>ДОБЫЧА КАМЕННОГО УГЛЯ, БУРОГО УГЛЯ И ТОРФА</t>
   </si>
   <si>
-    <t>ДОБЫЧА СЫРОЙ НЕФТИ И ПРИРОДНОГО ГАЗА; ПРЕДОСТАВЛЕНИЕ УСЛУГ В  ЭТИХ ОБЛАСТЯХ</t>
+    <t>ДОБЫЧА УРАНОВОЙ И ТОРИЕВОЙ РУД</t>
+  </si>
+  <si>
+    <t>ДОБЫЧА МЕТАЛЛИЧЕСКИХ РУД</t>
+  </si>
+  <si>
+    <t>ДОБЫЧА ПРОЧИХ ПОЛЕЗНЫХ ИСКОПАЕМЫХ</t>
+  </si>
+  <si>
+    <t>ПРОИЗВОДСТВО ПИЩЕВЫХ ПРОДУКТОВ, ВКЛЮЧАЯ НАПИТКИ</t>
+  </si>
+  <si>
+    <t>ДОБЫЧА СЫРОЙ НЕФТИ И ПРИРОДНОГО ГАЗА, ПРЕДОСТАВЛЕНИЕ УСЛУГ В  ЭТИХ ОБЛАСТЯХ</t>
   </si>
 </sst>
 </file>
@@ -280,7 +292,7 @@
   <dimension ref="A1:IW59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -441,7 +453,7 @@
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6">
         <v>11</v>
@@ -469,48 +481,120 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>139.155311205598</v>
+      </c>
+      <c r="D7" s="7">
+        <v>55.733366288235402</v>
+      </c>
+      <c r="E7" s="7">
+        <v>169.90504433138199</v>
+      </c>
+      <c r="F7" s="7">
+        <v>45691</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4.7782654746083697</v>
+      </c>
+      <c r="H7" s="7">
+        <v>81.575167989218698</v>
+      </c>
+      <c r="I7" s="7">
+        <v>45659</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7">
+        <v>155.66508405208899</v>
+      </c>
+      <c r="D8" s="7">
+        <v>88.7403960742175</v>
+      </c>
+      <c r="E8" s="7">
+        <v>146.18927291052199</v>
+      </c>
+      <c r="F8" s="7">
+        <v>72.336215535268096</v>
+      </c>
+      <c r="G8" s="7">
+        <v>120.76426693053899</v>
+      </c>
+      <c r="H8" s="7">
+        <v>109.23168598919401</v>
+      </c>
+      <c r="I8" s="7">
+        <v>86.529342249587998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>87.342761340226602</v>
+      </c>
+      <c r="D9" s="7">
+        <v>166.24011583657099</v>
+      </c>
+      <c r="E9" s="7">
+        <v>190.01301006619099</v>
+      </c>
+      <c r="F9" s="7">
+        <v>72.009509943385197</v>
+      </c>
+      <c r="G9" s="7">
+        <v>131.62958829441601</v>
+      </c>
+      <c r="H9" s="7">
+        <v>105.239136610673</v>
+      </c>
+      <c r="I9" s="7">
+        <v>78.062207283610505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <v>102.48784689007</v>
+      </c>
+      <c r="D10" s="7">
+        <v>103.679188341931</v>
+      </c>
+      <c r="E10" s="7">
+        <v>88.905993801519898</v>
+      </c>
+      <c r="F10" s="7">
+        <v>120.928731280402</v>
+      </c>
+      <c r="G10" s="7">
+        <v>92.894728262206499</v>
+      </c>
+      <c r="H10" s="7">
+        <v>78.307898597556999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>110.002230673667</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -1056,6 +1140,6 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prom.xlsx
+++ b/prom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximus\Desktop\Универ\Технологии искусственного интеллекта в государственном управлении\КТ5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58BEE1-D858-4180-8D91-36CB42DBBA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6A719-76F7-4214-B5A8-E59FC310AF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,31 +33,31 @@
     <t>Код ОКВЭД</t>
   </si>
   <si>
-    <t>СЕЛЬСКОЕ ХОЗЯЙСТВО, ОХОТА И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
+    <t>сельское хозяйство, охота и предоставление услуг в этих  областях</t>
   </si>
   <si>
-    <t>ЛЕСНОЕ ХОЗЯЙСТВО,ЛЕСОЗАГОТОВКИ И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТОЙ ОБЛАСТИ</t>
+    <t>рыболовство, рыбоводство и предоставление услуг в этих  областях</t>
   </si>
   <si>
-    <t>РЫБОЛОВСТВО, РЫБОВОДСТВО И ПРЕДОСТАВЛЕНИЕ УСЛУГ В ЭТИХ  ОБЛАСТЯХ</t>
+    <t>добыча каменного угля, бурого угля и торфа</t>
   </si>
   <si>
-    <t>ДОБЫЧА КАМЕННОГО УГЛЯ, БУРОГО УГЛЯ И ТОРФА</t>
+    <t>добыча сырой нефти и природного газа, предоставление услуг в  этих областях</t>
   </si>
   <si>
-    <t>ДОБЫЧА УРАНОВОЙ И ТОРИЕВОЙ РУД</t>
+    <t>добыча урановой и ториевой руд</t>
   </si>
   <si>
-    <t>ДОБЫЧА МЕТАЛЛИЧЕСКИХ РУД</t>
+    <t>добыча металлических руд</t>
   </si>
   <si>
-    <t>ДОБЫЧА ПРОЧИХ ПОЛЕЗНЫХ ИСКОПАЕМЫХ</t>
+    <t>добыча прочих полезных ископаемых</t>
   </si>
   <si>
-    <t>ПРОИЗВОДСТВО ПИЩЕВЫХ ПРОДУКТОВ, ВКЛЮЧАЯ НАПИТКИ</t>
+    <t>производство пищевых продуктов, включая напитки</t>
   </si>
   <si>
-    <t>ДОБЫЧА СЫРОЙ НЕФТИ И ПРИРОДНОГО ГАЗА, ПРЕДОСТАВЛЕНИЕ УСЛУГ В  ЭТИХ ОБЛАСТЯХ</t>
+    <t>лесное хозяйство, лесозаготовки и предоставление услуг в этой области</t>
   </si>
 </sst>
 </file>
@@ -291,8 +291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -335,7 +335,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -364,9 +364,9 @@
         <v>118.876658147038</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -393,9 +393,9 @@
         <v>45720</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>5</v>
@@ -422,9 +422,9 @@
         <v>179.73089294280899</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6">
         <v>10</v>
@@ -451,9 +451,9 @@
         <v>102.076285913281</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>11</v>
@@ -538,7 +538,7 @@
         <v>86.529342249587998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -567,7 +567,7 @@
         <v>78.062207283610505</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>

--- a/prom.xlsx
+++ b/prom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximus\Desktop\Универ\Технологии искусственного интеллекта в государственном управлении\КТ5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6A719-76F7-4214-B5A8-E59FC310AF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B182BAD-3BAC-4CE0-86C7-B2176A63D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,15 +75,17 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -95,7 +97,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
@@ -127,18 +129,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -151,16 +153,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -289,53 +281,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IW59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="257" width="9.140625" style="1"/>
+    <col min="1" max="1" width="38.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2010</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2011</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2012</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2013</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2014</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2015</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -393,7 +385,7 @@
         <v>45720</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -422,7 +414,7 @@
         <v>179.73089294280899</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -451,7 +443,7 @@
         <v>102.076285913281</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -567,7 +559,7 @@
         <v>78.062207283610505</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -673,16 +665,16 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -947,8 +939,8 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>

--- a/prom.xlsx
+++ b/prom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximus\Desktop\Универ\Технологии искусственного интеллекта в государственном управлении\КТ5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B182BAD-3BAC-4CE0-86C7-B2176A63D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ED43D5-0FFF-4A14-9DE5-1840A105DDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Код ОКВЭД</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t>добыча сырой нефти и природного газа, предоставление услуг в  этих областях</t>
-  </si>
-  <si>
-    <t>добыча урановой и ториевой руд</t>
-  </si>
-  <si>
-    <t>добыча металлических руд</t>
-  </si>
-  <si>
-    <t>добыча прочих полезных ископаемых</t>
-  </si>
-  <si>
-    <t>производство пищевых продуктов, включая напитки</t>
   </si>
   <si>
     <t>лесное хозяйство, лесозаготовки и предоставление услуг в этой области</t>
@@ -281,10 +269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A10" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -294,13 +282,10 @@
     <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
     <col min="5" max="6" width="13.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -317,17 +302,8 @@
       <c r="F1" s="3">
         <v>2013</v>
       </c>
-      <c r="G1" s="3">
-        <v>2014</v>
-      </c>
-      <c r="H1" s="3">
-        <v>2015</v>
-      </c>
-      <c r="I1" s="3">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -346,19 +322,10 @@
       <c r="F2" s="7">
         <v>77.660374365196503</v>
       </c>
-      <c r="G2" s="7">
-        <v>95.953773624946294</v>
-      </c>
-      <c r="H2" s="7">
-        <v>90.871319326484695</v>
-      </c>
-      <c r="I2" s="7">
-        <v>118.876658147038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -375,17 +342,8 @@
       <c r="F3" s="7">
         <v>45908</v>
       </c>
-      <c r="G3" s="7">
-        <v>12.1936314749695</v>
-      </c>
-      <c r="H3" s="7">
-        <v>24.310546233801499</v>
-      </c>
-      <c r="I3" s="7">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -404,17 +362,8 @@
       <c r="F4" s="7">
         <v>68.026128323826399</v>
       </c>
-      <c r="G4" s="7">
-        <v>71.10690936828</v>
-      </c>
-      <c r="H4" s="7">
-        <v>94.398516447039398</v>
-      </c>
-      <c r="I4" s="7">
-        <v>179.73089294280899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -433,17 +382,8 @@
       <c r="F5" s="7">
         <v>98.794104400083199</v>
       </c>
-      <c r="G5" s="7">
-        <v>51.699820201497097</v>
-      </c>
-      <c r="H5" s="7">
-        <v>157.938078186285</v>
-      </c>
-      <c r="I5" s="7">
-        <v>102.076285913281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -462,672 +402,400 @@
       <c r="F6" s="7">
         <v>96.851787957536501</v>
       </c>
-      <c r="G6" s="7">
-        <v>109.43941336495401</v>
-      </c>
-      <c r="H6" s="7">
-        <v>98.4868865372313</v>
-      </c>
-      <c r="I6" s="7">
-        <v>82.451855882717595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7">
-        <v>139.155311205598</v>
-      </c>
-      <c r="D7" s="7">
-        <v>55.733366288235402</v>
-      </c>
-      <c r="E7" s="7">
-        <v>169.90504433138199</v>
-      </c>
-      <c r="F7" s="7">
-        <v>45691</v>
-      </c>
-      <c r="G7" s="7">
-        <v>4.7782654746083697</v>
-      </c>
-      <c r="H7" s="7">
-        <v>81.575167989218698</v>
-      </c>
-      <c r="I7" s="7">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7">
-        <v>155.66508405208899</v>
-      </c>
-      <c r="D8" s="7">
-        <v>88.7403960742175</v>
-      </c>
-      <c r="E8" s="7">
-        <v>146.18927291052199</v>
-      </c>
-      <c r="F8" s="7">
-        <v>72.336215535268096</v>
-      </c>
-      <c r="G8" s="7">
-        <v>120.76426693053899</v>
-      </c>
-      <c r="H8" s="7">
-        <v>109.23168598919401</v>
-      </c>
-      <c r="I8" s="7">
-        <v>86.529342249587998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7">
-        <v>87.342761340226602</v>
-      </c>
-      <c r="D9" s="7">
-        <v>166.24011583657099</v>
-      </c>
-      <c r="E9" s="7">
-        <v>190.01301006619099</v>
-      </c>
-      <c r="F9" s="7">
-        <v>72.009509943385197</v>
-      </c>
-      <c r="G9" s="7">
-        <v>131.62958829441601</v>
-      </c>
-      <c r="H9" s="7">
-        <v>105.239136610673</v>
-      </c>
-      <c r="I9" s="7">
-        <v>78.062207283610505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7">
-        <v>102.48784689007</v>
-      </c>
-      <c r="D10" s="7">
-        <v>103.679188341931</v>
-      </c>
-      <c r="E10" s="7">
-        <v>88.905993801519898</v>
-      </c>
-      <c r="F10" s="7">
-        <v>120.928731280402</v>
-      </c>
-      <c r="G10" s="7">
-        <v>92.894728262206499</v>
-      </c>
-      <c r="H10" s="7">
-        <v>78.307898597556999</v>
-      </c>
-      <c r="I10" s="7">
-        <v>110.002230673667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/prom.xlsx
+++ b/prom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximus\Desktop\Универ\Технологии искусственного интеллекта в государственном управлении\КТ5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ED43D5-0FFF-4A14-9DE5-1840A105DDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A60083C-5879-4D38-9701-66AF7836DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Код ОКВЭД</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>добыча сырой нефти и природного газа, предоставление услуг в  этих областях</t>
+  </si>
+  <si>
+    <t>добыча урановой и ториевой руд</t>
+  </si>
+  <si>
+    <t>добыча металлических руд</t>
+  </si>
+  <si>
+    <t>добыча прочих полезных ископаемых</t>
+  </si>
+  <si>
+    <t>производство пищевых продуктов, включая напитки</t>
   </si>
   <si>
     <t>лесное хозяйство, лесозаготовки и предоставление услуг в этой области</t>
@@ -138,10 +150,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -269,10 +281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A7:XFD10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -325,13 +337,13 @@
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
-        <v>3</v>
+      <c r="C3" s="9">
+        <v>3.12</v>
       </c>
       <c r="D3" s="7">
         <v>95.8754826249248</v>
@@ -340,7 +352,7 @@
         <v>37.753919635298402</v>
       </c>
       <c r="F3" s="7">
-        <v>45908</v>
+        <v>45908.11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -404,36 +416,84 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>139.155311205598</v>
+      </c>
+      <c r="D7" s="7">
+        <v>55.733366288235402</v>
+      </c>
+      <c r="E7" s="7">
+        <v>169.90504433138199</v>
+      </c>
+      <c r="F7" s="7">
+        <v>45691.11</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7">
+        <v>155.66508405208899</v>
+      </c>
+      <c r="D8" s="7">
+        <v>88.7403960742175</v>
+      </c>
+      <c r="E8" s="7">
+        <v>146.18927291052199</v>
+      </c>
+      <c r="F8" s="7">
+        <v>72.336215535268096</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>87.342761340226602</v>
+      </c>
+      <c r="D9" s="7">
+        <v>166.24011583657099</v>
+      </c>
+      <c r="E9" s="7">
+        <v>190.01301006619099</v>
+      </c>
+      <c r="F9" s="7">
+        <v>72.009509943385197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <v>102.48784689007</v>
+      </c>
+      <c r="D10" s="7">
+        <v>103.679188341931</v>
+      </c>
+      <c r="E10" s="7">
+        <v>88.905993801519898</v>
+      </c>
+      <c r="F10" s="7">
+        <v>120.928731280402</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -658,8 +718,6 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
@@ -692,6 +750,8 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -797,6 +857,38 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/prom.xlsx
+++ b/prom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximus\Desktop\Универ\Технологии искусственного интеллекта в государственном управлении\КТ5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A60083C-5879-4D38-9701-66AF7836DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC71C48-F578-4E31-9EFD-E512F4E07FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -129,30 +126,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -281,10 +276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -297,7 +292,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -315,7 +310,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -335,14 +330,14 @@
         <v>77.660374365196503</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>3.12</v>
       </c>
       <c r="D3" s="7">
@@ -355,7 +350,7 @@
         <v>45908.11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -375,7 +370,7 @@
         <v>68.026128323826399</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -395,7 +390,7 @@
         <v>98.794104400083199</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -415,7 +410,7 @@
         <v>96.851787957536501</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -435,7 +430,7 @@
         <v>45691.11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -455,7 +450,7 @@
         <v>72.336215535268096</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -475,7 +470,7 @@
         <v>72.009509943385197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -495,7 +490,7 @@
         <v>120.928731280402</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -503,7 +498,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -511,7 +506,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -519,7 +514,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -527,7 +522,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -535,7 +530,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -543,7 +538,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -551,7 +546,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -559,7 +554,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -567,7 +562,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -575,7 +570,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -583,7 +578,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -591,7 +586,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -599,7 +594,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -607,7 +602,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -615,7 +610,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -623,7 +618,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -631,7 +626,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -639,7 +634,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -647,7 +642,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -655,7 +650,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -663,7 +658,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -671,7 +666,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -679,7 +674,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -687,7 +682,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -695,7 +690,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -703,7 +698,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -711,7 +706,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -719,7 +714,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -727,7 +722,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -735,7 +730,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -743,17 +738,15 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -761,7 +754,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -769,7 +762,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -777,7 +770,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -785,7 +778,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -793,7 +786,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -801,7 +794,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -809,7 +802,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
@@ -817,7 +810,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
@@ -825,7 +818,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
@@ -833,7 +826,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
@@ -841,7 +834,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
@@ -849,7 +842,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -857,7 +850,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -865,7 +858,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -873,7 +866,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
@@ -881,7 +874,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>

--- a/prom.xlsx
+++ b/prom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximus\Desktop\Универ\Технологии искусственного интеллекта в государственном управлении\КТ5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC71C48-F578-4E31-9EFD-E512F4E07FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEE29B5-09EE-4C55-9984-224506316AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
